--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220853.8298138142</v>
+        <v>221862.9402956417</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322885</v>
+        <v>19087887.38355837</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257202</v>
+        <v>9612256.23235416</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5504648.944557849</v>
+        <v>5424957.872757019</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>363.9810952468667</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.4324547506683</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -817,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>88.07201091734011</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9755589877489</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>175.1579885686891</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1063,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>78.47894112020143</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>117.9721911323852</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>173.6367412348446</v>
       </c>
       <c r="V8" t="n">
-        <v>173.6367412348448</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1294,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>139.4851730221162</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.8846381935532</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>147.9927083888644</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.975558987749</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>71.94762989914831</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>39.26195441469184</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>40.09606087029499</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914828</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2321,16 +2323,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.6684388475993</v>
+        <v>119.0131614123039</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2482,16 +2484,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.90863447604</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>222.9374371854216</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>141.3492123126918</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2621,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.7757544134948</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2792,22 +2794,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>99.49766132051545</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>148.8161893795793</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>133.9073134702961</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>78.26653139842092</v>
+        <v>169.381157978767</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>126.0481962669393</v>
+        <v>98.26334559068091</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.67748875058538</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>342.9908824122737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="V37" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>128.8925684673743</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>58.67748875058492</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>70.60537108849599</v>
+        <v>56.33567739176609</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>107.5562656493848</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>113.8636446244712</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4446813871638</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>110.0500814925472</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3977,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>196.0265444490558</v>
+        <v>4.411490684688657</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>24.75901487174782</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.5696644273588</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C2" t="n">
-        <v>404.5696644273588</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D2" t="n">
-        <v>404.5696644273588</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="L2" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="L2" t="n">
-        <v>950.4838058662885</v>
-      </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4361,19 +4363,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1229.755298763999</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X2" t="n">
-        <v>1229.755298763999</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y2" t="n">
-        <v>824.4180287188889</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.627938107791</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O3" t="n">
-        <v>1229.627938107791</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4393219715645</v>
+        <v>633.0247298698121</v>
       </c>
       <c r="C4" t="n">
-        <v>36.91199246082674</v>
+        <v>461.052166748728</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082674</v>
+        <v>297.7353938754987</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267237</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.075826767541</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V4" t="n">
-        <v>1040.36435937557</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W4" t="n">
-        <v>765.5119555480831</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="X4" t="n">
-        <v>522.9480589938881</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="Y4" t="n">
-        <v>296.6052906836302</v>
+        <v>823.1906985818778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.413988704697</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C5" t="n">
-        <v>593.5132587179971</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D5" t="n">
-        <v>170.2206379029974</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>357.6855680512415</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1564.305067733983</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1564.305067733983</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1564.305067733983</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1564.305067733983</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1564.305067733983</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.262352996227</v>
+        <v>1158.967797688873</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.25877763854</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>776.25877763854</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>263.4395936666639</v>
@@ -4747,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1766.327965344164</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1522.988617570064</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1522.988617570064</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V7" t="n">
-        <v>1241.277150178093</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W7" t="n">
-        <v>966.4247463506056</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X7" t="n">
-        <v>966.4247463506056</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>966.4247463506056</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="M8" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O8" t="n">
         <v>1271.257381456703</v>
@@ -4835,7 +4837,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="V8" t="n">
         <v>1670.208975329372</v>
@@ -4863,34 +4865,34 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N9" t="n">
         <v>1388.813716338606</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.8845555819107</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>263.4395936666639</v>
@@ -4975,7 +4977,7 @@
         <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4990,22 +4992,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1704.705508877583</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.521060377887</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.809592985916</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>867.9571891584293</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3932926042344</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y10" t="n">
-        <v>399.0505242939764</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.91199246082674</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C11" t="n">
-        <v>36.91199246082674</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D11" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
@@ -5051,16 +5053,16 @@
         <v>856.3013579804531</v>
       </c>
       <c r="N11" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O11" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5072,19 +5074,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>421.6439502320927</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>421.6439502320927</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J12" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>393.2225928484407</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0084995511716</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M12" t="n">
-        <v>1306.794406253902</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N12" t="n">
-        <v>1306.794406253902</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="O12" t="n">
-        <v>1763.580312956633</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.4393219715645</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>263.4395936666639</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>1040.36435937557</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W13" t="n">
-        <v>765.5119555480831</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X13" t="n">
-        <v>522.9480589938881</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.6052906836302</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1014.031259917554</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C14" t="n">
-        <v>1014.031259917554</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D14" t="n">
-        <v>590.7386391025543</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E14" t="n">
-        <v>590.7386391025543</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>36.91199246082674</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M14" t="n">
-        <v>475.942330131692</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N14" t="n">
-        <v>475.942330131692</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O14" t="n">
-        <v>932.7282368344229</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
         <v>1845.599623041337</v>
@@ -5318,10 +5320,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K15" t="n">
-        <v>308.6094817404178</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L15" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N15" t="n">
+        <v>475.2419029331443</v>
+      </c>
+      <c r="O15" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="P15" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1388.813716338606</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715645</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>782.7871087254983</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.278619601534</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O16" t="n">
-        <v>1515.706748281297</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5464,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480831</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938881</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836302</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>887.1053432625264</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C17" t="n">
-        <v>460.2046132758265</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082674</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>814.4714747539724</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L17" t="n">
-        <v>814.4714747539724</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M17" t="n">
-        <v>1271.257381456703</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N17" t="n">
-        <v>1271.257381456703</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O17" t="n">
-        <v>1271.257381456703</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P17" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X17" t="n">
-        <v>1712.290977599166</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y17" t="n">
-        <v>1306.953707554057</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>950.4838058662885</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>950.4838058662885</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>386.6237704712602</v>
+        <v>924.6155824080713</v>
       </c>
       <c r="C19" t="n">
-        <v>386.6237704712602</v>
+        <v>752.6430192869873</v>
       </c>
       <c r="D19" t="n">
-        <v>386.6237704712602</v>
+        <v>589.326246413758</v>
       </c>
       <c r="E19" t="n">
-        <v>386.6237704712602</v>
+        <v>423.1180405666115</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9652306584402</v>
+        <v>251.2562663411719</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7082609526723</v>
+        <v>84.99929663540408</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>84.99929663540408</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U19" t="n">
-        <v>1602.260275267237</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V19" t="n">
-        <v>1320.548807875266</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.696404047779</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X19" t="n">
-        <v>803.1325074935838</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.7897391833259</v>
+        <v>1114.781551120137</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>966.442159351893</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>543.1495385368933</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L20" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M20" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N20" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="21">
@@ -5811,40 +5813,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M21" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N21" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5905,7 +5907,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5932,22 +5934,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V22" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W22" t="n">
-        <v>1764.398243894584</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X22" t="n">
         <v>1544.188084595808</v>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2187.043752385067</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C23" t="n">
-        <v>1760.143022398368</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D23" t="n">
-        <v>1336.850401583368</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E23" t="n">
-        <v>910.8734617312255</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F23" t="n">
-        <v>485.7492799206257</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>444.0136763269698</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>444.0136763269698</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>788.743585942959</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M23" t="n">
-        <v>1793.029687362017</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N23" t="n">
-        <v>2769.280745848718</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O23" t="n">
-        <v>3614.42539599953</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P23" t="n">
-        <v>3614.42539599953</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>4070.510875503714</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.340735253613</v>
+        <v>2104.695937904493</v>
       </c>
       <c r="W23" t="n">
-        <v>3423.94938555396</v>
+        <v>1708.30458820484</v>
       </c>
       <c r="X23" t="n">
-        <v>3012.229386721707</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y23" t="n">
-        <v>2606.892116676598</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L24" t="n">
-        <v>81.41021751007428</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M24" t="n">
-        <v>882.6464064034149</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.097848090584</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.097848090584</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2854.874370707737</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C25" t="n">
-        <v>2682.901807586653</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D25" t="n">
-        <v>2519.585034713424</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="E25" t="n">
-        <v>2353.376828866278</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F25" t="n">
-        <v>2181.515054640838</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G25" t="n">
-        <v>2015.25808493507</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>1890.097848090585</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I25" t="n">
-        <v>1890.097848090585</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>1947.589176314743</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>2174.11677752058</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>2528.806098815001</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>2919.991893785252</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>3297.483404661288</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>3652.911533341051</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>3943.510745262952</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>4070.510875503714</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U25" t="n">
-        <v>4070.510875503714</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V25" t="n">
-        <v>3788.799408111743</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W25" t="n">
-        <v>3513.947004284256</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X25" t="n">
-        <v>3271.383107730061</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y25" t="n">
-        <v>3045.040339419803</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>448.8372874597989</v>
+        <v>696.5882855262723</v>
       </c>
       <c r="C26" t="n">
-        <v>448.8372874597989</v>
+        <v>269.6875555395724</v>
       </c>
       <c r="D26" t="n">
-        <v>448.8372874597989</v>
+        <v>269.6875555395724</v>
       </c>
       <c r="E26" t="n">
-        <v>448.8372874597989</v>
+        <v>269.6875555395724</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N26" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V26" t="n">
-        <v>2082.134270328344</v>
+        <v>1504.699634058178</v>
       </c>
       <c r="W26" t="n">
-        <v>1685.742920628692</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X26" t="n">
-        <v>1274.022921796439</v>
+        <v>696.5882855262723</v>
       </c>
       <c r="Y26" t="n">
-        <v>868.685651751329</v>
+        <v>696.5882855262723</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L27" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="M27" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M27" t="n">
-        <v>1302.520320645319</v>
-      </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O27" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>884.1145108219148</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>712.1419477008308</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D28" t="n">
-        <v>548.8251748276015</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E28" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F28" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6391,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="U28" t="n">
-        <v>2099.751015617891</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V28" t="n">
-        <v>1818.03954822592</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W28" t="n">
-        <v>1543.187144398433</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>1300.623247844238</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1074.28047953398</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>571.9016432384883</v>
+        <v>1297.254090085399</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0009132517884</v>
+        <v>1297.254090085399</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0009132517884</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0009132517884</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0009132517884</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0009132517884</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L29" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M29" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N29" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>2074.591869250679</v>
       </c>
       <c r="V29" t="n">
-        <v>1388.141357229671</v>
+        <v>1717.102454376929</v>
       </c>
       <c r="W29" t="n">
-        <v>991.7500075300184</v>
+        <v>1717.102454376929</v>
       </c>
       <c r="X29" t="n">
-        <v>991.7500075300184</v>
+        <v>1717.102454376929</v>
       </c>
       <c r="Y29" t="n">
-        <v>991.7500075300184</v>
+        <v>1717.102454376929</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M30" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N30" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O30" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P30" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6661,10 +6663,10 @@
         <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L32" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M32" t="n">
-        <v>1556.689382596036</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N32" t="n">
-        <v>2107.354917580474</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2145.854150039729</v>
+        <v>2053.819173695945</v>
       </c>
       <c r="V32" t="n">
-        <v>2145.854150039729</v>
+        <v>1696.329758822194</v>
       </c>
       <c r="W32" t="n">
-        <v>2145.854150039729</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="X32" t="n">
-        <v>2145.854150039729</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.51687999462</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M33" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N33" t="n">
+        <v>1145.829295018124</v>
+      </c>
+      <c r="O33" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6832,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>315.6159039117389</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C34" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="G34" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
         <v>2054.776204981511</v>
@@ -6889,19 +6891,19 @@
         <v>1811.436857207411</v>
       </c>
       <c r="U34" t="n">
-        <v>1531.252408707716</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
         <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>974.6885374882575</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X34" t="n">
-        <v>732.1246409340625</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y34" t="n">
-        <v>505.7818726238046</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E35" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>1651.269438076291</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N35" t="n">
-        <v>1651.269438076291</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O35" t="n">
-        <v>1651.269438076291</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2165.64106180522</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T35" t="n">
-        <v>2165.64106180522</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U35" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V35" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="W35" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="X35" t="n">
-        <v>2165.64106180522</v>
+        <v>1294.808041196487</v>
       </c>
       <c r="Y35" t="n">
-        <v>2165.64106180522</v>
+        <v>889.4707711513774</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M36" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.494830002562</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462377</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.692738652656</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C38" t="n">
-        <v>44.49822504924753</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924753</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>595.1637600336857</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M38" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U38" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V38" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W38" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X38" t="n">
-        <v>580.0300086977657</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.692738652656</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L39" t="n">
-        <v>201.1892506764427</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M39" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N39" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>955.4330674769612</v>
+        <v>1040.787803719786</v>
       </c>
       <c r="C40" t="n">
-        <v>783.4605043558772</v>
+        <v>868.8152405987023</v>
       </c>
       <c r="D40" t="n">
-        <v>620.1437314826479</v>
+        <v>705.498467725473</v>
       </c>
       <c r="E40" t="n">
-        <v>453.9355256355014</v>
+        <v>539.2902618783265</v>
       </c>
       <c r="F40" t="n">
-        <v>282.0737514100618</v>
+        <v>367.4284876528869</v>
       </c>
       <c r="G40" t="n">
-        <v>115.816781704294</v>
+        <v>201.1715179471191</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7339,7 +7341,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
         <v>1451.88378161995</v>
@@ -7360,22 +7362,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.72680396268</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V40" t="n">
-        <v>1663.015336570709</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W40" t="n">
-        <v>1388.162932743222</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="X40" t="n">
-        <v>1145.599036189027</v>
+        <v>1457.29654074211</v>
       </c>
       <c r="Y40" t="n">
-        <v>1145.599036189027</v>
+        <v>1230.953772431852</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>894.6915758509472</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C41" t="n">
-        <v>467.7908458642473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L41" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M41" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N41" t="n">
-        <v>2224.911252462377</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V41" t="n">
-        <v>2116.26855988724</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W41" t="n">
-        <v>1719.877210187587</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="X41" t="n">
-        <v>1719.877210187587</v>
+        <v>876.7362250810571</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.539940142477</v>
+        <v>471.3989550359474</v>
       </c>
     </row>
     <row r="42">
@@ -7491,28 +7493,28 @@
         <v>416.2236218818665</v>
       </c>
       <c r="K42" t="n">
-        <v>966.8891568663047</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L42" t="n">
-        <v>966.8891568663047</v>
+        <v>966.8891568663046</v>
       </c>
       <c r="M42" t="n">
-        <v>966.8891568663047</v>
+        <v>1517.554691850743</v>
       </c>
       <c r="N42" t="n">
-        <v>966.8891568663047</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O42" t="n">
-        <v>1210.100240615159</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.765775599597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q42" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R42" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S42" t="n">
         <v>2143.587005023631</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1027.91077931376</v>
+        <v>884.1145108219147</v>
       </c>
       <c r="C43" t="n">
-        <v>855.9382161926764</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="D43" t="n">
-        <v>692.6214433194471</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E43" t="n">
-        <v>526.4132374723006</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F43" t="n">
-        <v>354.551463246861</v>
+        <v>210.7551947550153</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7576,7 +7578,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N43" t="n">
         <v>1451.88378161995</v>
@@ -7591,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462376</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V43" t="n">
-        <v>1961.835816717766</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W43" t="n">
-        <v>1686.983412890279</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X43" t="n">
-        <v>1444.419516336084</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.076748025826</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>972.0229152084739</v>
+        <v>1303.486689458154</v>
       </c>
       <c r="C44" t="n">
-        <v>972.0229152084739</v>
+        <v>876.5859594714539</v>
       </c>
       <c r="D44" t="n">
-        <v>972.0229152084739</v>
+        <v>453.2933386564541</v>
       </c>
       <c r="E44" t="n">
-        <v>774.0163046538721</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F44" t="n">
-        <v>774.0163046538721</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>1313.087264683184</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1769.873171385915</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P44" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V44" t="n">
-        <v>1383.742914040727</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W44" t="n">
-        <v>1383.742914040727</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X44" t="n">
-        <v>972.0229152084739</v>
+        <v>1708.823959503263</v>
       </c>
       <c r="Y44" t="n">
-        <v>972.0229152084739</v>
+        <v>1303.486689458154</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>475.2419029331441</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L45" t="n">
-        <v>475.2419029331441</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M45" t="n">
-        <v>932.027809635875</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.03413975696</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>369.03413975696</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>205.7173668837307</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>205.7173668837307</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>205.7173668837307</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>77.36724514678696</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>303.8948463526241</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.940779286676</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>870.229311894705</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>595.376908067218</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>595.376908067218</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>369.03413975696</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>108.6396787202253</v>
       </c>
       <c r="P3" t="n">
-        <v>99.71676862514317</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>233.526361580185</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>362.3257551502136</v>
+        <v>115.5109099618852</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>182.1367435982025</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>108.2148272869816</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7901678844537</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M8" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379009</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8623,10 +8625,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8699,19 +8701,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P11" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>374.7870696168708</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385623</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8863,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7901678844537</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q13" t="n">
         <v>24.61956276478495</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M14" t="n">
-        <v>480.8962504457604</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>457.6348575812178</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>191.4123574746775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,28 +9166,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>454.9120992556681</v>
+        <v>203.2524428583636</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>462.4589018454977</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P18" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N20" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>386.5240723477636</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>547.936558404677</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>832.4262642429751</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N24" t="n">
-        <v>1038.97074708947</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,25 +9877,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>180.0440798263965</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>181.370543772121</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>181.020801548772</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,22 +10114,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>543.1036942593834</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>173.266988396334</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10586,25 +10588,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>547.9768619480851</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>452.2898123070839</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>549.2245073196785</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104035</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M38" t="n">
-        <v>452.4414523720699</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10896,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>173.1511355154377</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M41" t="n">
-        <v>204.9191049629863</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>179.616791473335</v>
       </c>
       <c r="O42" t="n">
-        <v>268.8396510847014</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L44" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>114.0667271187383</v>
+        <v>181.854840841818</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>457.6348575812177</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.50064758588189</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -22547,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>57.73607520675426</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22601,16 +22603,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>76.47411287133487</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>289.7416114658721</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>43.55832667712409</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22951,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>89.95475588585506</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>154.1316886568268</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23075,10 +23077,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>82.13461907470725</v>
       </c>
       <c r="V8" t="n">
-        <v>180.2777794901682</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23182,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23230,16 +23232,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>101.4207812742428</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.76524245506153</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23312,16 +23314,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>101.4207812742427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23428,7 +23430,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>75.93173177419166</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23464,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>272.8802316036293</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23558,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23704,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>275.6272398561812</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>329.3362674455103</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>130.8812020684933</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>58.67482170683179</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>348.9253100933454</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24032,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24263,7 +24265,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>106.2460818774137</v>
+        <v>234.9013593127091</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>59.64236734312308</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>18.44967133088713</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24415,10 +24417,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24452,10 +24454,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>197.9355028070721</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.5653084123212</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286422</v>
       </c>
       <c r="U28" t="n">
-        <v>153.4739695386594</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>195.3920334201901</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24731,16 +24733,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>106.9551709299725</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>106.2309441183568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24971,19 +24973,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>177.5048289111309</v>
+        <v>86.39020233078483</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44.20464122293382</v>
+        <v>71.98949189919223</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25154,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.64613243500562</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25217,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>64.61191643165648</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969948</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25366,10 +25368,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>293.7391542194586</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -25442,22 +25444,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>342.6064085940736</v>
       </c>
     </row>
     <row r="39">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>71.75293471843116</v>
+        <v>86.02262841516105</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25679,19 +25681,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>246.3582550756282</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>293.739154219459</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>18.44967133088761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>162.0537982966649</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>225.6906260045652</v>
+        <v>417.3056797689324</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.8353851369624</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>436013.1721511094</v>
+        <v>436013.1721511093</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436013.1721511094</v>
+        <v>436013.1721511093</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436013.1721511094</v>
+        <v>436013.1721511093</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436013.1721511094</v>
+        <v>436013.1721511093</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436013.1721511093</v>
+        <v>491295.3553721835</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491295.3553721836</v>
+        <v>491295.3553721835</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>697966.4944305704</v>
+        <v>491295.3553721835</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491295.3553721837</v>
+        <v>491295.3553721834</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491295.3553721837</v>
+        <v>491295.3553721835</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436013.1721511093</v>
+        <v>491295.3553721835</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90209.62182436748</v>
+        <v>90209.62182436744</v>
       </c>
       <c r="C2" t="n">
         <v>90209.62182436747</v>
       </c>
       <c r="D2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436744</v>
       </c>
       <c r="E2" t="n">
-        <v>90209.62182436752</v>
+        <v>90209.62182436741</v>
       </c>
       <c r="F2" t="n">
-        <v>90209.62182436747</v>
+        <v>90209.62182436742</v>
       </c>
       <c r="G2" t="n">
-        <v>90209.62182436748</v>
+        <v>101647.3149045896</v>
       </c>
       <c r="H2" t="n">
         <v>101647.3149045896</v>
       </c>
       <c r="I2" t="n">
-        <v>144406.8609166696</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="J2" t="n">
         <v>101647.3149045897</v>
@@ -26347,13 +26349,13 @@
         <v>101647.3149045896</v>
       </c>
       <c r="N2" t="n">
-        <v>101647.3149045897</v>
+        <v>101647.3149045896</v>
       </c>
       <c r="O2" t="n">
         <v>101647.3149045896</v>
       </c>
       <c r="P2" t="n">
-        <v>90209.6218243675</v>
+        <v>101647.3149045896</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="C4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="D4" t="n">
         <v>400.1036273708401</v>
@@ -26430,34 +26432,34 @@
         <v>400.1036273708401</v>
       </c>
       <c r="G4" t="n">
-        <v>400.10362737084</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="H4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="I4" t="n">
-        <v>676.5919402588218</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="J4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="K4" t="n">
         <v>458.4532502675966</v>
       </c>
       <c r="L4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="M4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="N4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="O4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="P4" t="n">
-        <v>400.1036273708401</v>
+        <v>458.4532502675964</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126496.9166913521</v>
+        <v>-126496.9166913522</v>
       </c>
       <c r="C6" t="n">
         <v>28128.80392676831</v>
       </c>
       <c r="D6" t="n">
-        <v>28128.80392676833</v>
+        <v>28128.80392676828</v>
       </c>
       <c r="E6" t="n">
-        <v>61756.40392676836</v>
+        <v>61756.40392676825</v>
       </c>
       <c r="F6" t="n">
-        <v>61756.4039267683</v>
+        <v>61756.40392676827</v>
       </c>
       <c r="G6" t="n">
-        <v>61756.40392676832</v>
+        <v>41379.30362942755</v>
       </c>
       <c r="H6" t="n">
-        <v>41784.78776127857</v>
+        <v>67370.21061689395</v>
       </c>
       <c r="I6" t="n">
-        <v>-40837.42067093948</v>
+        <v>67370.21061689395</v>
       </c>
       <c r="J6" t="n">
+        <v>-53352.30632586296</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67370.21061689389</v>
+      </c>
+      <c r="L6" t="n">
         <v>67370.21061689394</v>
       </c>
-      <c r="K6" t="n">
-        <v>67370.21061689391</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>67370.21061689395</v>
+      </c>
+      <c r="N6" t="n">
+        <v>67370.21061689386</v>
+      </c>
+      <c r="O6" t="n">
+        <v>44549.77988394329</v>
+      </c>
+      <c r="P6" t="n">
         <v>67370.21061689392</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67370.21061689389</v>
-      </c>
-      <c r="N6" t="n">
-        <v>67370.21061689398</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67370.21061689391</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61756.40392676833</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,17 +27026,17 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>461.3999057603343</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="P3" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>211.6076016844838</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L5" t="n">
-        <v>324.0137127175907</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7937153846608</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>104.4093672264672</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O8" t="n">
         <v>324.0137127175907</v>
       </c>
-      <c r="N8" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255729</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35343,10 +35345,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P11" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35583,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>104.4093672264672</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M14" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,10 +35822,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>419.1474984608587</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>440.0596680121644</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P18" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N20" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>348.2120299151406</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>809.3294837306471</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N24" t="n">
-        <v>1017.627718875928</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>158.2737632597931</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M38" t="n">
-        <v>415.0101894726381</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M41" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>158.2737632597933</v>
       </c>
       <c r="O42" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>76.49136530850697</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.86389160198002</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221862.9402956417</v>
+        <v>216329.2237711464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355837</v>
+        <v>18796139.2690746</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.23235416</v>
+        <v>9326313.905348606</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5424957.872757019</v>
+        <v>5572470.460212809</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.4324547506683</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>131.975558987749</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -825,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>88.07201091734011</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>200.6852570556692</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>121.3481503778102</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>175.1579885686891</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>117.9721911323852</v>
+        <v>251.2424698691162</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>173.6367412348446</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>185.7099446844611</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>126.716395896553</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>59.72669943267301</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66266823451852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>100.3205534937714</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>63.90220182932698</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>164.5404183120838</v>
+        <v>29.62771989982238</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>57.35299777961163</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.94762989914831</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>40.09606087029499</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.928164287566364</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>71.94762989914828</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>104.3036839313614</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2256,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>117.15854261448</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>119.0131614123039</v>
+        <v>262.109398220601</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.9037564455519</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>222.9374371854216</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>324.7117242864956</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
-        <v>218.7757544134948</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,25 +2794,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>137.0769613774025</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>148.8161893795793</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>133.9073134702961</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.130588143828354</v>
       </c>
       <c r="U32" t="n">
-        <v>169.381157978767</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>98.26334559068091</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>342.9908824122737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9086344760393</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>66.72457055527018</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>56.33567739176609</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>113.8636446244712</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>49.87597792716608</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0500814925472</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>3.477688583137215</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.411490684688657</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.8127224475267</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082673</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L2" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="N2" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="M2" t="n">
-        <v>950.4838058662883</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1407.269712569019</v>
-      </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4369,13 +4369,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1700.718355616419</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1288.998356784166</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y2" t="n">
-        <v>883.6610867390567</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P3" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="P3" t="n">
-        <v>1763.580312956633</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>633.0247298698121</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="C4" t="n">
-        <v>461.052166748728</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="D4" t="n">
-        <v>297.7353938754987</v>
+        <v>618.5468092849825</v>
       </c>
       <c r="E4" t="n">
-        <v>208.7737666862663</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818778</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>823.1906985818778</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X4" t="n">
-        <v>823.1906985818778</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y4" t="n">
-        <v>823.1906985818778</v>
+        <v>1144.002113991362</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>739.1194333973433</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C5" t="n">
-        <v>739.1194333973433</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1194333973433</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1194333973433</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4573,13 +4573,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>932.7282368344228</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M5" t="n">
-        <v>932.7282368344228</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344228</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O5" t="n">
         <v>1389.514143537154</v>
@@ -4594,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1564.305067733983</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1564.305067733983</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1564.305067733983</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1564.305067733983</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1564.305067733983</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1158.967797688873</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="6">
@@ -4628,22 +4628,22 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J6" t="n">
         <v>308.6094817404178</v>
@@ -4652,19 +4652,19 @@
         <v>765.3953884431487</v>
       </c>
       <c r="L6" t="n">
-        <v>765.3953884431487</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M6" t="n">
-        <v>1222.18129514588</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="O6" t="n">
-        <v>1222.18129514588</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.96720184861</v>
+        <v>1678.967201848611</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1798.56100972851</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V7" t="n">
-        <v>1798.56100972851</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W7" t="n">
-        <v>1679.397180301858</v>
+        <v>569.4104259868113</v>
       </c>
       <c r="X7" t="n">
-        <v>1436.833283747663</v>
+        <v>326.8465294326164</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>326.8465294326164</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.91199246082673</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082673</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662883</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1670.208975329372</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1670.208975329372</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1273.817625629719</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>862.0976267974665</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y8" t="n">
-        <v>456.7603567523568</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082673</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358751</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.206464925269</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.305734938569</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="D11" t="n">
-        <v>888.013114123569</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0361742714265</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>856.3013579804531</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>856.3013579804531</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N11" t="n">
-        <v>856.3013579804531</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O11" t="n">
-        <v>1271.957808655251</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P11" t="n">
-        <v>1271.957808655251</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>316.0561247023297</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0561247023297</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>316.0561247023297</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M12" t="n">
-        <v>316.0561247023297</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N12" t="n">
-        <v>393.2225928484411</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O12" t="n">
-        <v>850.0084995511719</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.794406253903</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q12" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S12" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U12" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V12" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4702432027646</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4702432027646</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D13" t="n">
-        <v>126.4702432027646</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E13" t="n">
-        <v>126.4702432027646</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F13" t="n">
-        <v>126.4702432027646</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K13" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L13" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M13" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N13" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O13" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q13" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786371</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V13" t="n">
-        <v>870.2293118947046</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="W13" t="n">
-        <v>595.3769080672175</v>
+        <v>1379.496439048267</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130226</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027646</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.206464925269</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.305734938569</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D14" t="n">
-        <v>888.013114123569</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>932.0278096358751</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>932.0278096358751</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C15" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35863542273857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.35863542273857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>475.2419029331443</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331443</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2419029331443</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N15" t="n">
-        <v>475.2419029331443</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358751</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R15" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S15" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U15" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V15" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>795.2141720205701</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>623.2416088994861</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L16" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>1454.286805597088</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>1211.722909042894</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>985.3801407326357</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.668515703089</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C17" t="n">
-        <v>893.7677857163897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D17" t="n">
-        <v>470.47516490139</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N17" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630123</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y17" t="n">
-        <v>1740.51687999462</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="18">
@@ -5576,37 +5576,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N18" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
         <v>1853.185855629757</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6155824080713</v>
+        <v>792.5008004748155</v>
       </c>
       <c r="C19" t="n">
-        <v>752.6430192869873</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="D19" t="n">
-        <v>589.326246413758</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E19" t="n">
-        <v>423.1180405666115</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F19" t="n">
-        <v>251.2562663411719</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>84.99929663540408</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>84.99929663540408</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U19" t="n">
-        <v>1897.688190649853</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="V19" t="n">
-        <v>1615.976723257882</v>
+        <v>1492.880289089845</v>
       </c>
       <c r="W19" t="n">
-        <v>1341.124319430395</v>
+        <v>1218.027885262358</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.124319430395</v>
+        <v>1209.009537497139</v>
       </c>
       <c r="Y19" t="n">
-        <v>1114.781551120137</v>
+        <v>982.6667691868811</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1393.342889338593</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="C20" t="n">
-        <v>966.442159351893</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D20" t="n">
-        <v>543.1495385368933</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E20" t="n">
-        <v>117.1725986847508</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M20" t="n">
-        <v>549.9383681074139</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N20" t="n">
-        <v>549.9383681074139</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2119.553995966052</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>2119.553995966052</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1762.064581092301</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>1762.064581092301</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.191253630123</v>
+        <v>1350.344582260049</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.191253630123</v>
+        <v>1350.344582260049</v>
       </c>
     </row>
     <row r="21">
@@ -5813,40 +5813,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>720.7977379486855</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1936.434242744662</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>471.3989550359474</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M23" t="n">
-        <v>595.1637600336854</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N23" t="n">
-        <v>595.1637600336854</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O23" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>2104.695937904493</v>
+        <v>1960.15428456278</v>
       </c>
       <c r="W23" t="n">
-        <v>1708.30458820484</v>
+        <v>1563.762934863126</v>
       </c>
       <c r="X23" t="n">
-        <v>1296.584589372587</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y23" t="n">
-        <v>891.2473193274775</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="24">
@@ -6050,40 +6050,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M24" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O24" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>485.7509513926031</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C25" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D25" t="n">
-        <v>150.4616153982898</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T25" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U25" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V25" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X25" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>696.5882855262723</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="C26" t="n">
-        <v>269.6875555395724</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D26" t="n">
-        <v>269.6875555395724</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E26" t="n">
-        <v>269.6875555395724</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="N26" t="n">
-        <v>2059.098288819457</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U26" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V26" t="n">
-        <v>1504.699634058178</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W26" t="n">
-        <v>1108.308284358525</v>
+        <v>1281.075287491608</v>
       </c>
       <c r="X26" t="n">
-        <v>696.5882855262723</v>
+        <v>1281.075287491608</v>
       </c>
       <c r="Y26" t="n">
-        <v>696.5882855262723</v>
+        <v>875.7380174464988</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N27" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P27" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524003</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D28" t="n">
-        <v>792.390011579171</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6393,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T28" t="n">
-        <v>1786.751981150003</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U28" t="n">
-        <v>1786.751981150003</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.751981150003</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.254090085399</v>
+        <v>1068.050024256367</v>
       </c>
       <c r="C29" t="n">
-        <v>1297.254090085399</v>
+        <v>641.1492942696675</v>
       </c>
       <c r="D29" t="n">
-        <v>873.9614692703988</v>
+        <v>217.8566734546678</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9614692703988</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M29" t="n">
-        <v>1100.603903091852</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N29" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>2074.591869250679</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.102454376929</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W29" t="n">
-        <v>1717.102454376929</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X29" t="n">
-        <v>1717.102454376929</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y29" t="n">
-        <v>1717.102454376929</v>
+        <v>1487.898388547897</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>874.3078922751884</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>874.3078922751884</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N30" t="n">
-        <v>874.3078922751884</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>792.3900115791711</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>792.3900115791711</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>792.3900115791711</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1299.938409122541</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="C32" t="n">
-        <v>1299.938409122541</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.938409122541</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E32" t="n">
-        <v>873.9614692703988</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F32" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336855</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336855</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N32" t="n">
-        <v>595.1637600336855</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O32" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2220.738941205984</v>
       </c>
       <c r="U32" t="n">
-        <v>2053.819173695945</v>
+        <v>1962.384031802397</v>
       </c>
       <c r="V32" t="n">
-        <v>1696.329758822194</v>
+        <v>1604.894616928646</v>
       </c>
       <c r="W32" t="n">
-        <v>1299.938409122541</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="X32" t="n">
-        <v>1299.938409122541</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="Y32" t="n">
-        <v>1299.938409122541</v>
+        <v>1208.503267228993</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336855</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
         <v>1853.185855629757</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>315.6159039117385</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
         <v>216.3599992746871</v>
@@ -6846,16 +6846,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6867,7 +6867,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
         <v>1451.88378161995</v>
@@ -6882,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>1811.436857207411</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>974.688537488257</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>732.1246409340621</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>505.7818726238041</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C35" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D35" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N35" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O35" t="n">
-        <v>1556.689382596035</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>1641.263477976561</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>1641.263477976561</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W35" t="n">
-        <v>1641.263477976561</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.808041196487</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.4707711513774</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L36" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M36" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N36" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O36" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.1145108219148</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>712.1419477008308</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>548.8251748276015</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7122,25 +7122,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.751015617891</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>1818.03954822592</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>1543.187144398433</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>1300.623247844238</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>1074.28047953398</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>1556.689382596035</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X38" t="n">
-        <v>2224.911252462376</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y38" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="39">
@@ -7241,28 +7241,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608812</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1040.787803719786</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8152405987023</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>705.498467725473</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>539.2902618783265</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>367.4284876528869</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>201.1715179471191</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7341,7 +7341,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
         <v>1451.88378161995</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688276</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.571904688276</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.860437296305</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1699.860437296305</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.29654074211</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.953772431852</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>471.3989550359474</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C41" t="n">
-        <v>44.49822504924752</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D41" t="n">
-        <v>44.49822504924752</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924752</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>198.3239149157083</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V41" t="n">
-        <v>1388.141357229671</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W41" t="n">
-        <v>991.7500075300179</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X41" t="n">
-        <v>876.7362250810571</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y41" t="n">
-        <v>471.3989550359474</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C42" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>416.2236218818665</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>416.2236218818665</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>966.8891568663046</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M42" t="n">
-        <v>1517.554691850743</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N42" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S42" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T42" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U42" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V42" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W42" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X42" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y42" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.1145108219147</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C43" t="n">
-        <v>712.1419477008307</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8251748276014</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7551947550153</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7578,43 +7578,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N43" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.533291375449</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U43" t="n">
-        <v>1654.348842875753</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V43" t="n">
-        <v>1654.348842875753</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W43" t="n">
-        <v>1543.187144398433</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.623247844238</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y43" t="n">
-        <v>1074.28047953398</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1303.486689458154</v>
+        <v>487.2469754669713</v>
       </c>
       <c r="C44" t="n">
-        <v>876.5859594714539</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="D44" t="n">
-        <v>453.2933386564541</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E44" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F44" t="n">
-        <v>448.8372874597989</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>957.767218850581</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M44" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N44" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O44" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W44" t="n">
-        <v>2120.543958335516</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X44" t="n">
-        <v>1708.823959503263</v>
+        <v>1312.432609803611</v>
       </c>
       <c r="Y44" t="n">
-        <v>1303.486689458154</v>
+        <v>907.0953397585014</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N45" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O45" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
         <v>1853.185855629757</v>
@@ -7794,16 +7794,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7984,25 +7984,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>480.1484446815972</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8066,19 +8066,19 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6396787202253</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,16 +8139,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>233.526361580185</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>154.8562184343671</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>115.5109099618852</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8300,10 +8300,10 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.2148272869816</v>
+        <v>108.2148272869814</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8385,16 +8385,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929571</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379013</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8625,13 +8625,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>457.2459600376382</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8771,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>99.28895563385623</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>114.80340774113</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9005,28 +9005,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>457.6348575812178</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,7 +9093,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>203.2524428583636</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>462.4589018454977</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
@@ -9403,28 +9403,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>181.7107419310186</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O23" t="n">
-        <v>547.936558404677</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
-        <v>86.13502881159596</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
@@ -9898,7 +9898,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291356</v>
+        <v>453.8808346480169</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
-        <v>181.020801548772</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10114,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>182.5915214642096</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>543.1036942593834</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>452.2898123070839</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,10 +10682,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>549.2245073196785</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10825,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>84.50867025038097</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500401</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
@@ -10846,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>462.5747547263938</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O41" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N42" t="n">
-        <v>179.616791473335</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11299,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>181.854840841818</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378161</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>248.9949814519883</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>275.6272398561812</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.47411287133487</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,10 +22758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>23.39408357148619</v>
       </c>
     </row>
     <row r="5">
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>301.2835723090227</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>43.55832667712409</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>154.1316886568268</v>
+        <v>20.86140992009589</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -23038,10 +23038,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>82.13461907470725</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>221.8928541594691</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.36294473060234</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>361.990471020948</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.93173177419166</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.8177040948815</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.3306541137075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>358.7295208575059</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771283</v>
+        <v>242.4761598893897</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>350.2498010643185</v>
       </c>
       <c r="Y17" t="n">
-        <v>329.3362674455103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>58.67482170683179</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>231.2100933010865</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>348.9253100933454</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -23989,7 +23989,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>114.4126313144517</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>160.2240614002187</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24265,7 +24265,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>234.9013593127091</v>
+        <v>91.80512250441205</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>59.64236734312308</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>197.9355028070721</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>67.71571191616101</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
-        <v>22.13019988286422</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>284.6402090762185</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>106.9551709299725</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>106.2309441183568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>214.5857271019848</v>
       </c>
       <c r="U32" t="n">
-        <v>86.39020233078483</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>71.98949189919223</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>310.9275062493575</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25165,16 +25165,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>64.61191643165648</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25362,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.4739695386594</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>348.9253100933445</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.6064085940736</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>86.02262841516105</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>282.5561413626132</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>293.739154219459</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>111.8076272173309</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>162.0537982966649</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>419.1540341036957</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>417.3056797689324</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25885,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436013.1721511093</v>
+        <v>436013.1721511094</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436013.1721511093</v>
+        <v>491295.3553721836</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436013.1721511093</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436013.1721511093</v>
+        <v>491295.3553721836</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>491295.3553721835</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491295.3553721835</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491295.3553721834</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491295.3553721835</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491295.3553721835</v>
+        <v>491295.3553721837</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491295.3553721835</v>
+        <v>491295.3553721838</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90209.62182436744</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="C2" t="n">
         <v>90209.62182436747</v>
       </c>
       <c r="D2" t="n">
-        <v>90209.62182436744</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="E2" t="n">
-        <v>90209.62182436741</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="F2" t="n">
-        <v>90209.62182436742</v>
+        <v>101647.3149045896</v>
       </c>
       <c r="G2" t="n">
         <v>101647.3149045896</v>
@@ -26334,10 +26334,10 @@
         <v>101647.3149045896</v>
       </c>
       <c r="I2" t="n">
-        <v>101647.3149045897</v>
+        <v>101647.3149045896</v>
       </c>
       <c r="J2" t="n">
-        <v>101647.3149045897</v>
+        <v>101647.3149045896</v>
       </c>
       <c r="K2" t="n">
         <v>101647.3149045896</v>
@@ -26346,7 +26346,7 @@
         <v>101647.3149045896</v>
       </c>
       <c r="M2" t="n">
-        <v>101647.3149045896</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="N2" t="n">
         <v>101647.3149045896</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29456.39286176439</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24000.08990045009</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="C4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="D4" t="n">
-        <v>400.1036273708401</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="E4" t="n">
-        <v>400.1036273708401</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="F4" t="n">
-        <v>400.1036273708401</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="G4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="H4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="I4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="J4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="K4" t="n">
         <v>458.4532502675966</v>
       </c>
       <c r="L4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="M4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="N4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="O4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="P4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>61680.71427022832</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126496.9166913522</v>
+        <v>-127201.2765128437</v>
       </c>
       <c r="C6" t="n">
-        <v>28128.80392676831</v>
+        <v>27424.44410527679</v>
       </c>
       <c r="D6" t="n">
-        <v>28128.80392676828</v>
+        <v>3677.1720426399</v>
       </c>
       <c r="E6" t="n">
-        <v>61756.40392676825</v>
+        <v>66761.16490440427</v>
       </c>
       <c r="F6" t="n">
-        <v>61756.40392676827</v>
+        <v>66761.16490440423</v>
       </c>
       <c r="G6" t="n">
-        <v>41379.30362942755</v>
+        <v>66761.16490440426</v>
       </c>
       <c r="H6" t="n">
-        <v>67370.21061689395</v>
+        <v>66761.16490440424</v>
       </c>
       <c r="I6" t="n">
-        <v>67370.21061689395</v>
+        <v>66761.16490440424</v>
       </c>
       <c r="J6" t="n">
-        <v>-53352.30632586296</v>
+        <v>-53961.35203835263</v>
       </c>
       <c r="K6" t="n">
-        <v>67370.21061689389</v>
+        <v>66761.16490440423</v>
       </c>
       <c r="L6" t="n">
-        <v>67370.21061689394</v>
+        <v>42761.07500395415</v>
       </c>
       <c r="M6" t="n">
-        <v>67370.21061689395</v>
+        <v>66761.1649044043</v>
       </c>
       <c r="N6" t="n">
-        <v>67370.21061689386</v>
+        <v>66761.16490440424</v>
       </c>
       <c r="O6" t="n">
-        <v>44549.77988394329</v>
+        <v>66761.16490440421</v>
       </c>
       <c r="P6" t="n">
-        <v>67370.21061689392</v>
+        <v>66761.16490440424</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603343</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O2" t="n">
-        <v>442.7574853255731</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>85.46778899800312</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,16 +34859,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>211.6076016844838</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>134.1073174587667</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
-        <v>77.19886752926232</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.46778899800312</v>
+        <v>85.46778899800287</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35105,16 +35105,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35345,13 +35345,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P10" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>419.8550006816141</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35491,7 +35491,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>77.94592742031456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35585,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603341</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>76.49136530850708</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>435.2356237478845</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35822,10 +35822,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>167.4878420635542</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>440.0596680121644</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
@@ -36123,28 +36123,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O23" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
-        <v>48.74406945557187</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>519.9318045371612</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>415.0101894726379</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N38" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0596680121643</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O41" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N42" t="n">
-        <v>158.2737632597933</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38019,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
